--- a/example_data/EPA/label_corrected/000264-01078-20161021_2018-12-07_202146.xlsx
+++ b/example_data/EPA/label_corrected/000264-01078-20161021_2018-12-07_202146.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -726,7 +726,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -861,7 +861,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -888,7 +888,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -915,7 +915,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -942,7 +942,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -996,7 +996,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Env warning - species || Env warning - water || Application instructions || Off Target Movement</t>
+          <t>off target movement || application instructions || env warning - species || env warning - water</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation</t>
+          <t>irrigation || chemigation</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -7680,7 +7680,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -7718,7 +7718,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -7754,7 +7754,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
